--- a/data/trans_dic/P05A_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P05A_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3050298672741421</v>
+        <v>0.3034599529769631</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3331061950851556</v>
+        <v>0.3348045103201792</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3068108384356744</v>
+        <v>0.307892884183307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.245318821523223</v>
+        <v>0.2423219474223662</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3483997375620867</v>
+        <v>0.3491951296475206</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3413763659602158</v>
+        <v>0.3428810323580475</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3317964558412168</v>
+        <v>0.331430251167207</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2729094620084828</v>
+        <v>0.2726742617871595</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3442453656117348</v>
+        <v>0.3434549824620747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3462649518022397</v>
+        <v>0.3467026143211875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.328566671540976</v>
+        <v>0.3279428656987884</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2707728158076935</v>
+        <v>0.2686219490506641</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3844429838836566</v>
+        <v>0.3849934120563033</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3947047512621146</v>
+        <v>0.3981770019891077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3652230439361296</v>
+        <v>0.3624554091845833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3380378118843441</v>
+        <v>0.3313058398576211</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4110830814212137</v>
+        <v>0.4129249608287968</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3996850147355509</v>
+        <v>0.4025516238936513</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3859712242944201</v>
+        <v>0.3874954465595781</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3397472901930555</v>
+        <v>0.3410523093449179</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3936949666243233</v>
+        <v>0.3917889908046388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3896319807193889</v>
+        <v>0.389942772289869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3680386974088763</v>
+        <v>0.3690666333109622</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.324902288143278</v>
+        <v>0.322785354479852</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2740734500245741</v>
+        <v>0.2749519986669223</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3514288664020771</v>
+        <v>0.3518044386277847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3302552750316032</v>
+        <v>0.3309536266831435</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1191882664874455</v>
+        <v>0.1202238821053689</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3015613854734077</v>
+        <v>0.3035174205806859</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3538909135001223</v>
+        <v>0.3482837210914669</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3552483599228613</v>
+        <v>0.3559703231091365</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1492972110965703</v>
+        <v>0.1503417134286642</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2968150967269449</v>
+        <v>0.2941852810390779</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3608775830652926</v>
+        <v>0.3603265235703743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3526012080860183</v>
+        <v>0.3530287775788195</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1421317259350261</v>
+        <v>0.1423170149650754</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3309824211364427</v>
+        <v>0.3313940164662149</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4171271966846556</v>
+        <v>0.4182334885009553</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3987148557595058</v>
+        <v>0.3951875656776199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.171323275054864</v>
+        <v>0.1688848302636498</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3619369436903574</v>
+        <v>0.3616014199510311</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4131478134098759</v>
+        <v>0.4123227981445755</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4211249296156582</v>
+        <v>0.417464071493259</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1896608887215088</v>
+        <v>0.1906214210483358</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3372915396384621</v>
+        <v>0.3361094592364667</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4058941082294834</v>
+        <v>0.404861480250176</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3961208450296702</v>
+        <v>0.3979271705726632</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1753659816166989</v>
+        <v>0.1734351674587545</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2201652764814031</v>
+        <v>0.2215299971282729</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3946894633242287</v>
+        <v>0.3979810013912222</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2997823153823064</v>
+        <v>0.300100777051645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.124919459694029</v>
+        <v>0.1233557445039295</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2804914370339135</v>
+        <v>0.2789612003990662</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3938908929225935</v>
+        <v>0.3977371887631609</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2790948735452375</v>
+        <v>0.2824191980635682</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1508091831878053</v>
+        <v>0.1502009854860233</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2578830832096511</v>
+        <v>0.2583581443263708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4076441642076334</v>
+        <v>0.4061040281678312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2990765778168471</v>
+        <v>0.2989061566883454</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.144022531166259</v>
+        <v>0.1425638627875747</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2714922045355309</v>
+        <v>0.2723612543366493</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4629969834733723</v>
+        <v>0.4649268149435096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3704810674715451</v>
+        <v>0.366724861893212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1731007975371208</v>
+        <v>0.1748422093748466</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3381945536819455</v>
+        <v>0.3393007981915971</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4644258518128619</v>
+        <v>0.46570157728557</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.347822148648274</v>
+        <v>0.3450213840922742</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.193687929225148</v>
+        <v>0.1944812461431304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.29588721093017</v>
+        <v>0.2971592873125189</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4528515438838664</v>
+        <v>0.4541552177821603</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3468074089511137</v>
+        <v>0.3442618978209543</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1764704915661478</v>
+        <v>0.1752040837141413</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4412377043809746</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2175050055757109</v>
+        <v>0.2175050055757108</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2922225418734786</v>
+        <v>0.287949844069823</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3876820503699309</v>
+        <v>0.3844252576333969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4084721706708517</v>
+        <v>0.4102430915325572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1891166745192951</v>
+        <v>0.1903132859583748</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3247832040342957</v>
+        <v>0.3284610534171525</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3988016542165115</v>
+        <v>0.3993083508138353</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3850817844331231</v>
+        <v>0.3849109255165562</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1952284309847615</v>
+        <v>0.1926424623368075</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3201177660256554</v>
+        <v>0.3224510388943914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4079939327369982</v>
+        <v>0.4070573344670734</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4096980353378736</v>
+        <v>0.4100609500704399</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.197659479875021</v>
+        <v>0.1991887969605041</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3825432291029743</v>
+        <v>0.3829050043032845</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4813437786465962</v>
+        <v>0.4736579005598267</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5002238343170355</v>
+        <v>0.5010682481950691</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2436969774836602</v>
+        <v>0.2482741662563245</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.431928966130003</v>
+        <v>0.4345398048411225</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4957393530703419</v>
+        <v>0.4952523312002306</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4754735154528982</v>
+        <v>0.4790547193072769</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.244430895265193</v>
+        <v>0.2435263243658903</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3884534714396528</v>
+        <v>0.3928453950932875</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4721816153326326</v>
+        <v>0.4719734174553052</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.472262186099562</v>
+        <v>0.4722852966275829</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2371587243054279</v>
+        <v>0.2383189774662079</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3658366874479356</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2046906555625287</v>
+        <v>0.2046906555625286</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3199793670621504</v>
@@ -1241,7 +1241,7 @@
         <v>0.3630800311414151</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.19551972647257</v>
+        <v>0.1955197264725701</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2795868660534532</v>
+        <v>0.2791591274112615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.38007515273841</v>
+        <v>0.3796618983861557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3448929171222986</v>
+        <v>0.3431196137880873</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1713105510502928</v>
+        <v>0.1716761842224955</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3265312433024644</v>
+        <v>0.3278193960378212</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3817551646410225</v>
+        <v>0.3796110735130359</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3492976801805538</v>
+        <v>0.3498138229518832</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1921584290092259</v>
+        <v>0.1933142068842177</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3087832135141236</v>
+        <v>0.3088280450417118</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3867376827533195</v>
+        <v>0.3866110941366236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3519401959035091</v>
+        <v>0.3505451715335331</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1855265780281027</v>
+        <v>0.1855316046197677</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3130609445841764</v>
+        <v>0.3113133137309744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4143189306183395</v>
+        <v>0.4142361253218025</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3782028919160622</v>
+        <v>0.3764453773369315</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2007988776753865</v>
+        <v>0.200976747228206</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.361182831427354</v>
+        <v>0.3599376205850294</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4150166495211966</v>
+        <v>0.4131746807478145</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3830492384972126</v>
+        <v>0.3821336610406675</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2181326204049281</v>
+        <v>0.2171547626015777</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3326725159446294</v>
+        <v>0.3331083465723247</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4104314854827559</v>
+        <v>0.4102649848181653</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3754652187807729</v>
+        <v>0.3752369948280831</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.206065135014722</v>
+        <v>0.2058267106157073</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>178180</v>
+        <v>177263</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>347499</v>
+        <v>349271</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>346082</v>
+        <v>347302</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>122350</v>
+        <v>120855</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>321341</v>
+        <v>322074</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>381955</v>
+        <v>383639</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>417918</v>
+        <v>417457</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>170181</v>
+        <v>170034</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>518597</v>
+        <v>517406</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>748651</v>
+        <v>749597</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>784472</v>
+        <v>782983</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>303894</v>
+        <v>301480</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>224569</v>
+        <v>224890</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>411759</v>
+        <v>415381</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>411970</v>
+        <v>408849</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>168593</v>
+        <v>165235</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>379155</v>
+        <v>380854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>447195</v>
+        <v>450402</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>486154</v>
+        <v>488074</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>211860</v>
+        <v>212673</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>593091</v>
+        <v>590220</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>842414</v>
+        <v>843086</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>878714</v>
+        <v>881168</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>364644</v>
+        <v>362268</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>295422</v>
+        <v>296369</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>343012</v>
+        <v>343378</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>300144</v>
+        <v>300779</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>114437</v>
+        <v>115431</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>318913</v>
+        <v>320981</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>387249</v>
+        <v>381114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>356729</v>
+        <v>357454</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>166593</v>
+        <v>167759</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>633828</v>
+        <v>628213</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>747129</v>
+        <v>745988</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>674524</v>
+        <v>675342</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>295063</v>
+        <v>295448</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>356764</v>
+        <v>357208</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>407137</v>
+        <v>408216</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>362362</v>
+        <v>359156</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>164494</v>
+        <v>162153</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>382762</v>
+        <v>382407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>452092</v>
+        <v>451189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>422881</v>
+        <v>419204</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>211633</v>
+        <v>212705</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>720263</v>
+        <v>717739</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>840327</v>
+        <v>838189</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>757777</v>
+        <v>761232</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>364057</v>
+        <v>360049</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>246936</v>
+        <v>248467</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>348509</v>
+        <v>351415</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>246948</v>
+        <v>247211</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>130726</v>
+        <v>129089</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>278792</v>
+        <v>277271</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>344592</v>
+        <v>347956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>215199</v>
+        <v>217762</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>157994</v>
+        <v>157357</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>545560</v>
+        <v>546565</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>716571</v>
+        <v>713864</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>476973</v>
+        <v>476701</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>301601</v>
+        <v>298546</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>304504</v>
+        <v>305479</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>408824</v>
+        <v>410528</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>305187</v>
+        <v>302093</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>181146</v>
+        <v>182969</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>336145</v>
+        <v>337245</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>406298</v>
+        <v>407414</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>268191</v>
+        <v>266032</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>202916</v>
+        <v>203747</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>625959</v>
+        <v>628651</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>796038</v>
+        <v>798330</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>553095</v>
+        <v>549035</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>369551</v>
+        <v>366899</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>130682</v>
+        <v>128771</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>194414</v>
+        <v>192781</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>206456</v>
+        <v>207351</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>184564</v>
+        <v>185732</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>110802</v>
+        <v>112057</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>179462</v>
+        <v>179690</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>188574</v>
+        <v>188490</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>177591</v>
+        <v>175239</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>252367</v>
+        <v>254207</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>388199</v>
+        <v>387308</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>407703</v>
+        <v>408064</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>372705</v>
+        <v>375588</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>171073</v>
+        <v>171235</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>241384</v>
+        <v>237529</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>252830</v>
+        <v>253257</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>237831</v>
+        <v>242298</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>147356</v>
+        <v>148247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>223084</v>
+        <v>222865</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>232838</v>
+        <v>234592</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>222349</v>
+        <v>221526</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>306240</v>
+        <v>309703</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>449272</v>
+        <v>449074</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>469963</v>
+        <v>469986</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>447184</v>
+        <v>449372</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>903297</v>
+        <v>901915</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1293674</v>
+        <v>1292267</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1160915</v>
+        <v>1154946</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>596381</v>
+        <v>597654</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1082441</v>
+        <v>1086711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1350639</v>
+        <v>1343054</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1231095</v>
+        <v>1232914</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>710358</v>
+        <v>714631</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2021233</v>
+        <v>2021526</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2684619</v>
+        <v>2683740</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2425044</v>
+        <v>2415432</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1331713</v>
+        <v>1331749</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1011446</v>
+        <v>1005800</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1410230</v>
+        <v>1409948</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1273037</v>
+        <v>1267121</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>699038</v>
+        <v>699657</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1197310</v>
+        <v>1193182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1468318</v>
+        <v>1461801</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1350052</v>
+        <v>1346825</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>806378</v>
+        <v>802763</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2177607</v>
+        <v>2180460</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2849094</v>
+        <v>2847938</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2587143</v>
+        <v>2585571</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1479139</v>
+        <v>1477427</v>
       </c>
     </row>
     <row r="24">
